--- a/output/StructureDefinition-EmergencyContactExtension.xlsx
+++ b/output/StructureDefinition-EmergencyContactExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T11:44:23+02:00</t>
+    <t>2025-01-19T20:06:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
